--- a/sync/xlsx/karaoke.xlsx
+++ b/sync/xlsx/karaoke.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miVpfyPRw8GVodOG/0KWexvbkMPSw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mikPg3ISJHrmoEGt4w2ogZAyZVkew=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
   <si>
     <t>Sorteio Karaokê</t>
   </si>
@@ -37,15 +37,6 @@
   </si>
   <si>
     <t>Locaweb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANCIELLE JACOBINO  </t>
-  </si>
-  <si>
-    <t>locaweb-1</t>
-  </si>
-  <si>
-    <t>PINTURA INTIMA</t>
   </si>
   <si>
     <t>BIANCA AUGUSTO</t>
@@ -156,12 +147,6 @@
     <t>TEMPO PERDIDO</t>
   </si>
   <si>
-    <t>locaweb-14</t>
-  </si>
-  <si>
-    <t>BOLA DE SABÃO</t>
-  </si>
-  <si>
     <t>FELIPE RUOSO</t>
   </si>
   <si>
@@ -244,12 +229,12 @@
       <sz val="8.0"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8.0"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -324,10 +309,10 @@
     <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -635,10 +620,10 @@
       <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -671,10 +656,10 @@
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -707,10 +692,10 @@
       <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -743,10 +728,10 @@
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -779,10 +764,10 @@
       <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -818,7 +803,7 @@
       <c r="D8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -854,7 +839,7 @@
       <c r="D9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -890,7 +875,7 @@
       <c r="D10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -926,7 +911,7 @@
       <c r="D11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -962,7 +947,7 @@
       <c r="D12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -998,7 +983,7 @@
       <c r="D13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1034,7 +1019,7 @@
       <c r="D14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1070,7 +1055,7 @@
       <c r="D15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1098,15 +1083,15 @@
         <v>6</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1134,15 +1119,15 @@
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1165,20 +1150,20 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1201,20 +1186,20 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="8"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1242,15 +1227,15 @@
         <v>6</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1274,19 +1259,11 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="7"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1310,19 +1287,11 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="7"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1377,7 +1346,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -20777,62 +20746,6 @@
       <c r="Y716" s="2"/>
       <c r="Z716" s="2"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="2"/>
-      <c r="B717" s="2"/>
-      <c r="C717" s="10"/>
-      <c r="D717" s="11"/>
-      <c r="E717" s="2"/>
-      <c r="F717" s="2"/>
-      <c r="G717" s="2"/>
-      <c r="H717" s="2"/>
-      <c r="I717" s="2"/>
-      <c r="J717" s="2"/>
-      <c r="K717" s="2"/>
-      <c r="L717" s="2"/>
-      <c r="M717" s="2"/>
-      <c r="N717" s="2"/>
-      <c r="O717" s="2"/>
-      <c r="P717" s="2"/>
-      <c r="Q717" s="2"/>
-      <c r="R717" s="2"/>
-      <c r="S717" s="2"/>
-      <c r="T717" s="2"/>
-      <c r="U717" s="2"/>
-      <c r="V717" s="2"/>
-      <c r="W717" s="2"/>
-      <c r="X717" s="2"/>
-      <c r="Y717" s="2"/>
-      <c r="Z717" s="2"/>
-    </row>
-    <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="2"/>
-      <c r="B718" s="2"/>
-      <c r="C718" s="10"/>
-      <c r="D718" s="11"/>
-      <c r="E718" s="2"/>
-      <c r="F718" s="2"/>
-      <c r="G718" s="2"/>
-      <c r="H718" s="2"/>
-      <c r="I718" s="2"/>
-      <c r="J718" s="2"/>
-      <c r="K718" s="2"/>
-      <c r="L718" s="2"/>
-      <c r="M718" s="2"/>
-      <c r="N718" s="2"/>
-      <c r="O718" s="2"/>
-      <c r="P718" s="2"/>
-      <c r="Q718" s="2"/>
-      <c r="R718" s="2"/>
-      <c r="S718" s="2"/>
-      <c r="T718" s="2"/>
-      <c r="U718" s="2"/>
-      <c r="V718" s="2"/>
-      <c r="W718" s="2"/>
-      <c r="X718" s="2"/>
-      <c r="Y718" s="2"/>
-      <c r="Z718" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
